--- a/data/trans_orig/P16A_n_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R3-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>32088</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22079</v>
+        <v>22381</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44186</v>
+        <v>45390</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03110177572962099</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02140021701402611</v>
+        <v>0.02169305821484041</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04282709123456117</v>
+        <v>0.04399441098442469</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -765,19 +765,19 @@
         <v>64008</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>50196</v>
+        <v>50067</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79690</v>
+        <v>81642</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04867080313377262</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03816837191396123</v>
+        <v>0.03807023866477519</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06059517524486129</v>
+        <v>0.06207952399184997</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>95</v>
@@ -786,19 +786,19 @@
         <v>96096</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77112</v>
+        <v>78704</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>117599</v>
+        <v>117487</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04094705467963243</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03285807035671731</v>
+        <v>0.0335361763294573</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05010952196143176</v>
+        <v>0.0500618120875419</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>999635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>987537</v>
+        <v>986333</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1009644</v>
+        <v>1009342</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.968898224270379</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9571729087654388</v>
+        <v>0.9560055890155753</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9785997829859738</v>
+        <v>0.9783069417851595</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1229</v>
@@ -836,19 +836,19 @@
         <v>1251105</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1235423</v>
+        <v>1233471</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1264917</v>
+        <v>1265046</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9513291968662274</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9394048247551391</v>
+        <v>0.9379204760081495</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9618316280860391</v>
+        <v>0.9619297613352245</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2234</v>
@@ -857,19 +857,19 @@
         <v>2250739</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2229236</v>
+        <v>2229348</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2269723</v>
+        <v>2268131</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9590529453203676</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9498904780385681</v>
+        <v>0.9499381879124579</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9671419296432819</v>
+        <v>0.9664638236705426</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>11578</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6144</v>
+        <v>6169</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18961</v>
+        <v>19999</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006836794126584654</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003628244409865662</v>
+        <v>0.003642916839177811</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01119693957403165</v>
+        <v>0.01180974708633358</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -982,19 +982,19 @@
         <v>21813</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14545</v>
+        <v>13807</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33582</v>
+        <v>32671</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01373908371176405</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009161485942608193</v>
+        <v>0.008696178743955891</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02115181559593095</v>
+        <v>0.02057795002446097</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -1003,19 +1003,19 @@
         <v>33391</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23508</v>
+        <v>23454</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46942</v>
+        <v>47531</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01017671891913727</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007164580388979821</v>
+        <v>0.007148324040946761</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01430696846059646</v>
+        <v>0.01448639553131061</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1681835</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1674452</v>
+        <v>1673414</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1687269</v>
+        <v>1687244</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9931632058734153</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9888030604259676</v>
+        <v>0.9881902529136664</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9963717555901344</v>
+        <v>0.9963570831608222</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1533</v>
@@ -1053,19 +1053,19 @@
         <v>1565860</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1554091</v>
+        <v>1555002</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1573128</v>
+        <v>1573866</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.986260916288236</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.978848184404069</v>
+        <v>0.9794220499755392</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9908385140573918</v>
+        <v>0.9913038212560441</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3170</v>
@@ -1074,19 +1074,19 @@
         <v>3247695</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3234144</v>
+        <v>3233555</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3257578</v>
+        <v>3257632</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9898232810808627</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.985693031539404</v>
+        <v>0.9855136044686893</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9928354196110203</v>
+        <v>0.9928516759590532</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>4748</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1745</v>
+        <v>1777</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10712</v>
+        <v>11347</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008611324736737392</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003165088922857418</v>
+        <v>0.003223289494903137</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01942634682736008</v>
+        <v>0.02057784935439147</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6055</v>
+        <v>6190</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002361062017326535</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01270960442567032</v>
+        <v>0.01299310842897839</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1220,19 +1220,19 @@
         <v>5873</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1967</v>
+        <v>2562</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11791</v>
+        <v>12753</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005714222976960796</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001914183560118481</v>
+        <v>0.002492746355793387</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01147207247777508</v>
+        <v>0.01240825435718835</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>546660</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>540696</v>
+        <v>540061</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>549663</v>
+        <v>549631</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9913886752632626</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9805736531726404</v>
+        <v>0.9794221506456099</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9968349110771426</v>
+        <v>0.9967767105050969</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>451</v>
@@ -1270,7 +1270,7 @@
         <v>475287</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>470357</v>
+        <v>470222</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>476412</v>
@@ -1279,7 +1279,7 @@
         <v>0.9976389379826734</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9872903955743305</v>
+        <v>0.9870068915710215</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>1021947</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1016029</v>
+        <v>1015067</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1025853</v>
+        <v>1025258</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9942857770230392</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9885279275222248</v>
+        <v>0.9875917456428114</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9980858164398815</v>
+        <v>0.9975072536442066</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>48414</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36773</v>
+        <v>37491</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63778</v>
+        <v>63100</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01477602252712973</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01122318022834878</v>
+        <v>0.01144238637360486</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01946498160689208</v>
+        <v>0.01925800713609086</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -1416,19 +1416,19 @@
         <v>86946</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69124</v>
+        <v>70220</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>107438</v>
+        <v>108831</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02572966005616997</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02045573238250396</v>
+        <v>0.02078010317046013</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03179400011348867</v>
+        <v>0.0322062430309303</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>134</v>
@@ -1437,19 +1437,19 @@
         <v>135360</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111113</v>
+        <v>112029</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>158867</v>
+        <v>157395</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02033731232419787</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01669427122577981</v>
+        <v>0.01683195214914444</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02386913079493733</v>
+        <v>0.02364799133010926</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3228129</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3212765</v>
+        <v>3213443</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3239770</v>
+        <v>3239052</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9852239774728703</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9805350183931079</v>
+        <v>0.9807419928639091</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9887768197716511</v>
+        <v>0.988557613626395</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3213</v>
@@ -1487,19 +1487,19 @@
         <v>3292251</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3271759</v>
+        <v>3270366</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3310073</v>
+        <v>3308977</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9742703399438301</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9682059998865112</v>
+        <v>0.9677937569690697</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.979544267617496</v>
+        <v>0.9792198968295398</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6377</v>
@@ -1508,19 +1508,19 @@
         <v>6520381</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6496874</v>
+        <v>6498346</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6544628</v>
+        <v>6543712</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9796626876758021</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9761308692050616</v>
+        <v>0.9763520086698906</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.98330572877422</v>
+        <v>0.983168047850855</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>43343</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30360</v>
+        <v>30091</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57739</v>
+        <v>58746</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04447069674945436</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03114942902831257</v>
+        <v>0.03087400964343709</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05924157052642579</v>
+        <v>0.06027423160230679</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>134</v>
@@ -1872,19 +1872,19 @@
         <v>143163</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>122139</v>
+        <v>122234</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>169427</v>
+        <v>167219</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1070137802592011</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09129885477820457</v>
+        <v>0.09136958256408478</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1266461066020918</v>
+        <v>0.1249958665998489</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>171</v>
@@ -1893,19 +1893,19 @@
         <v>186506</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>160166</v>
+        <v>161944</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>215180</v>
+        <v>215189</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08065322998375567</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06926285031053671</v>
+        <v>0.07003163015761511</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09305327728805811</v>
+        <v>0.09305710104727458</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>931300</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>916904</v>
+        <v>915897</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>944283</v>
+        <v>944552</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9555293032505456</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9407584294735741</v>
+        <v>0.9397257683976931</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9688505709716873</v>
+        <v>0.9691259903565628</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1113</v>
@@ -1943,19 +1943,19 @@
         <v>1194634</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1168370</v>
+        <v>1170578</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1215658</v>
+        <v>1215563</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8929862197407989</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8733538933979083</v>
+        <v>0.875004133400151</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9087011452217955</v>
+        <v>0.9086304174359152</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1984</v>
@@ -1964,19 +1964,19 @@
         <v>2125934</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2097260</v>
+        <v>2097251</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2152274</v>
+        <v>2150496</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9193467700162443</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9069467227119419</v>
+        <v>0.9069428989527255</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9307371496894631</v>
+        <v>0.929968369842385</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>12354</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6361</v>
+        <v>6292</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21972</v>
+        <v>21886</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006290353353617047</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003238677765939085</v>
+        <v>0.003203598738842033</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0111875093041801</v>
+        <v>0.01114365468544535</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -2089,19 +2089,19 @@
         <v>25136</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16342</v>
+        <v>16923</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36072</v>
+        <v>37829</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01429964818588887</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009296761211078551</v>
+        <v>0.009627235058039278</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02052121666879589</v>
+        <v>0.02152045125073942</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -2110,19 +2110,19 @@
         <v>37490</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26644</v>
+        <v>26586</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51764</v>
+        <v>51097</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01007317640171987</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007158853637427305</v>
+        <v>0.007143464474510545</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01390856233657408</v>
+        <v>0.01372939069824079</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1951603</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1941985</v>
+        <v>1942071</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1957596</v>
+        <v>1957665</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9937096466463829</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9888124906958199</v>
+        <v>0.9888563453145547</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9967613222340609</v>
+        <v>0.996796401261158</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1611</v>
@@ -2160,19 +2160,19 @@
         <v>1732667</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1721731</v>
+        <v>1719974</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1741461</v>
+        <v>1740880</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9857003518141111</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.979478783331204</v>
+        <v>0.97847954874926</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9907032387889214</v>
+        <v>0.9903727649419605</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3456</v>
@@ -2181,19 +2181,19 @@
         <v>3684270</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3669996</v>
+        <v>3670663</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3695116</v>
+        <v>3695174</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9899268235982801</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9860914376634257</v>
+        <v>0.9862706093017595</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9928411463625726</v>
+        <v>0.9928565355254897</v>
       </c>
     </row>
     <row r="9">
@@ -2288,16 +2288,16 @@
         <v>1860</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16759</v>
+        <v>17817</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01287968826030953</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003865844735953452</v>
+        <v>0.003864859746799508</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03482941329348255</v>
+        <v>0.03702843353714958</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -2306,19 +2306,19 @@
         <v>8832</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3841</v>
+        <v>4272</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17121</v>
+        <v>17337</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0192570784190472</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008374341854025254</v>
+        <v>0.009314373172830796</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03733113276864712</v>
+        <v>0.03780256707385263</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -2327,19 +2327,19 @@
         <v>15029</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7456</v>
+        <v>7572</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26549</v>
+        <v>26766</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01599187213317877</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007933729648524002</v>
+        <v>0.008057057550385478</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02824912329682342</v>
+        <v>0.02848032867943741</v>
       </c>
     </row>
     <row r="11">
@@ -2356,7 +2356,7 @@
         <v>474984</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>464422</v>
+        <v>463364</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>479321</v>
@@ -2365,10 +2365,10 @@
         <v>0.9871203117396905</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9651705867065176</v>
+        <v>0.9629715664628512</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9961341552640465</v>
+        <v>0.9961351402532005</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>404</v>
@@ -2377,19 +2377,19 @@
         <v>449799</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>441510</v>
+        <v>441294</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>454790</v>
+        <v>454359</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9807429215809528</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9626688672313529</v>
+        <v>0.9621974329261473</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9916256581459748</v>
+        <v>0.9906856268271692</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>839</v>
@@ -2398,19 +2398,19 @@
         <v>924784</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>913264</v>
+        <v>913047</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>932357</v>
+        <v>932241</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9840081278668212</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9717508767031766</v>
+        <v>0.9715196713205626</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.992066270351476</v>
+        <v>0.9919429424496145</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>61895</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44377</v>
+        <v>44822</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81514</v>
+        <v>80581</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0180989634404736</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01297646323005904</v>
+        <v>0.01310659572396077</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0238359340246074</v>
+        <v>0.02356325089793038</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>166</v>
@@ -2523,19 +2523,19 @@
         <v>177131</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>150290</v>
+        <v>151234</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>204855</v>
+        <v>204471</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04983653436786199</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04228475420764152</v>
+        <v>0.04255032849403267</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05763694384844151</v>
+        <v>0.05752898576083981</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>217</v>
@@ -2544,19 +2544,19 @@
         <v>239025</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>207164</v>
+        <v>209465</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>272963</v>
+        <v>270712</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03427367516208816</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02970509967753391</v>
+        <v>0.03003514145331615</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03913999849848124</v>
+        <v>0.03881731057542086</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3357887</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3338268</v>
+        <v>3339201</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3375405</v>
+        <v>3374960</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9819010365595264</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9761640659753924</v>
+        <v>0.9764367491020697</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9870235367699406</v>
+        <v>0.9868934042760383</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3128</v>
@@ -2594,19 +2594,19 @@
         <v>3377099</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3349375</v>
+        <v>3349759</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3403940</v>
+        <v>3402996</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.950163465632138</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9423630561515586</v>
+        <v>0.9424710142391604</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9577152457923584</v>
+        <v>0.9574496715059675</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6279</v>
@@ -2615,19 +2615,19 @@
         <v>6734987</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6701049</v>
+        <v>6703300</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6766848</v>
+        <v>6764547</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9657263248379119</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9608600015015187</v>
+        <v>0.9611826894245792</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9702949003224658</v>
+        <v>0.9699648585466838</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>37764</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26951</v>
+        <v>28465</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50194</v>
+        <v>50998</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05006188726593742</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03572779847070366</v>
+        <v>0.03773403684100455</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06653931127008325</v>
+        <v>0.06760498372018164</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>86</v>
@@ -2979,19 +2979,19 @@
         <v>98260</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>79078</v>
+        <v>80836</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>119639</v>
+        <v>119714</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09878774780484016</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07950264518700283</v>
+        <v>0.08127006157082844</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1202811037037878</v>
+        <v>0.1203568412224465</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>127</v>
@@ -3000,19 +3000,19 @@
         <v>136024</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>114267</v>
+        <v>113804</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>157167</v>
+        <v>160914</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07777228192500776</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06533256724969277</v>
+        <v>0.065068034875211</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08986047856237837</v>
+        <v>0.09200307230143666</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>716583</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>704153</v>
+        <v>703349</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>727396</v>
+        <v>725882</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9499381127340626</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9334606887299168</v>
+        <v>0.9323950162798184</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.964272201529297</v>
+        <v>0.9622659631589956</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>806</v>
@@ -3050,19 +3050,19 @@
         <v>896400</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>875021</v>
+        <v>874946</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>915582</v>
+        <v>913824</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9012122521951599</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8797188962962121</v>
+        <v>0.8796431587775532</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9204973548129971</v>
+        <v>0.9187299384291715</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1527</v>
@@ -3071,19 +3071,19 @@
         <v>1612983</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1591840</v>
+        <v>1588093</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1634740</v>
+        <v>1635203</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9222277180749923</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9101395214376216</v>
+        <v>0.9079969276985634</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9346674327503071</v>
+        <v>0.934931965124789</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>14966</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7690</v>
+        <v>8473</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24969</v>
+        <v>24976</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007207814381002857</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003703673117922092</v>
+        <v>0.00408072516188468</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0120251844860943</v>
+        <v>0.01202869669081915</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -3196,19 +3196,19 @@
         <v>45372</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32251</v>
+        <v>32737</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61032</v>
+        <v>61780</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02281968302998709</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01622036840292451</v>
+        <v>0.01646476493398378</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03069552707207263</v>
+        <v>0.03107197017929183</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -3217,19 +3217,19 @@
         <v>60339</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45174</v>
+        <v>45072</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78498</v>
+        <v>77762</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01484458800924519</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0111136985818627</v>
+        <v>0.01108871854121784</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01931213080756356</v>
+        <v>0.01913123584303374</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2061419</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2051416</v>
+        <v>2051409</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2068695</v>
+        <v>2067912</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9927921856189972</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9879748155139055</v>
+        <v>0.9879713033091808</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9962963268820779</v>
+        <v>0.9959192748381152</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1867</v>
@@ -3267,19 +3267,19 @@
         <v>1942928</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1927268</v>
+        <v>1926520</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1956049</v>
+        <v>1955563</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.977180316970013</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9693044729279275</v>
+        <v>0.968928029820708</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9837796315970757</v>
+        <v>0.9835352350660161</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3806</v>
@@ -3288,19 +3288,19 @@
         <v>4004346</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3986187</v>
+        <v>3986923</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4019511</v>
+        <v>4019613</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9851554119907548</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9806878691924366</v>
+        <v>0.9808687641569663</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9888863014181375</v>
+        <v>0.9889112814587823</v>
       </c>
     </row>
     <row r="9">
@@ -3395,16 +3395,16 @@
         <v>937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11118</v>
+        <v>9362</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006459708722098429</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001712700056306033</v>
+        <v>0.00171375866729745</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02032898763060794</v>
+        <v>0.01711911610393771</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -3413,19 +3413,19 @@
         <v>8154</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3232</v>
+        <v>3259</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15553</v>
+        <v>15903</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01484847615947132</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005886261208947367</v>
+        <v>0.005934367517162499</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02832278160908441</v>
+        <v>0.02896067161834089</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -3434,19 +3434,19 @@
         <v>11687</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6329</v>
+        <v>6014</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21522</v>
+        <v>21498</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01066271882068228</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005774415220032875</v>
+        <v>0.005486681276050364</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01963630092706027</v>
+        <v>0.01961476829043791</v>
       </c>
     </row>
     <row r="11">
@@ -3463,7 +3463,7 @@
         <v>543353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>535768</v>
+        <v>537524</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>545949</v>
@@ -3472,10 +3472,10 @@
         <v>0.9935402912779016</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9796710123693922</v>
+        <v>0.9828808838960623</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9982872999436939</v>
+        <v>0.9982862413327025</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>519</v>
@@ -3484,19 +3484,19 @@
         <v>540986</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>533587</v>
+        <v>533237</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>545908</v>
+        <v>545881</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9851515238405287</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9716772183909156</v>
+        <v>0.9710393283816591</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9941137387910527</v>
+        <v>0.9940656324828374</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1017</v>
@@ -3505,19 +3505,19 @@
         <v>1084340</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1074505</v>
+        <v>1074529</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1089698</v>
+        <v>1090013</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9893372811793177</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9803636990729393</v>
+        <v>0.9803852317095618</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9942255847799669</v>
+        <v>0.9945133187239497</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>56263</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42946</v>
+        <v>41940</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70894</v>
+        <v>69987</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01665758173735599</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01271491842205669</v>
+        <v>0.01241713649571434</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0209892362112757</v>
+        <v>0.02072067934580171</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>134</v>
@@ -3630,19 +3630,19 @@
         <v>151786</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>129285</v>
+        <v>126983</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>178586</v>
+        <v>179360</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04297344043918622</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03660295243522107</v>
+        <v>0.03595120129831528</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05056089252180961</v>
+        <v>0.05077993727451638</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -3651,19 +3651,19 @@
         <v>208049</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>179963</v>
+        <v>181565</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>237262</v>
+        <v>237156</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03010968685261919</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02604488401710182</v>
+        <v>0.02627669467594613</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03433750324772199</v>
+        <v>0.03432210994885105</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3321355</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3306724</v>
+        <v>3307631</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3334672</v>
+        <v>3335678</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.983342418262644</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9790107637887243</v>
+        <v>0.9792793206541983</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9872850815779434</v>
+        <v>0.9875828635042857</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3192</v>
@@ -3701,19 +3701,19 @@
         <v>3380314</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3353514</v>
+        <v>3352740</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3402815</v>
+        <v>3405117</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9570265595608137</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9494391074781904</v>
+        <v>0.9492200627254836</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.963397047564779</v>
+        <v>0.9640487987016847</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6350</v>
@@ -3722,19 +3722,19 @@
         <v>6701669</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6672456</v>
+        <v>6672562</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6729755</v>
+        <v>6728153</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9698903131473808</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9656624967522784</v>
+        <v>0.9656778900511491</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9739551159828982</v>
+        <v>0.9737233053240539</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>69774</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56819</v>
+        <v>58158</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83602</v>
+        <v>85211</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1206058201025997</v>
+        <v>0.1206058201025998</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09821332185948863</v>
+        <v>0.1005271675461768</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1445081553072397</v>
+        <v>0.1472888868870893</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>371</v>
@@ -4086,19 +4086,19 @@
         <v>201429</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>182166</v>
+        <v>183456</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>220018</v>
+        <v>221773</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2450363116188787</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2216028364893076</v>
+        <v>0.2231724831311273</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2676493062124969</v>
+        <v>0.269784699189914</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>478</v>
@@ -4107,19 +4107,19 @@
         <v>271203</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>249197</v>
+        <v>248167</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>296855</v>
+        <v>293855</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1936380671804172</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1779259514269472</v>
+        <v>0.1771904404826612</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2119535032075855</v>
+        <v>0.2098117404269807</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>508755</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>494927</v>
+        <v>493318</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>521710</v>
+        <v>520371</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8793941798974003</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8554918446927603</v>
+        <v>0.8527111131129105</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9017866781405114</v>
+        <v>0.8994728324538228</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1056</v>
@@ -4157,19 +4157,19 @@
         <v>620609</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>602020</v>
+        <v>600265</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>639872</v>
+        <v>638582</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7549636883811213</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7323506937875031</v>
+        <v>0.7302153008100862</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7783971635106921</v>
+        <v>0.7768275168688729</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1640</v>
@@ -4178,19 +4178,19 @@
         <v>1129364</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1103712</v>
+        <v>1106712</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1151370</v>
+        <v>1152400</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8063619328195829</v>
+        <v>0.8063619328195828</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7880464967924147</v>
+        <v>0.7901882595730192</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8220740485730529</v>
+        <v>0.8228095595173386</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>80215</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65059</v>
+        <v>65547</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99797</v>
+        <v>99087</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03596156350103815</v>
+        <v>0.03596156350103814</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02916694253386353</v>
+        <v>0.02938572288268052</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04474067321001871</v>
+        <v>0.0444224858609734</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>223</v>
@@ -4303,19 +4303,19 @@
         <v>126351</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110889</v>
+        <v>109643</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>143133</v>
+        <v>142858</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05818914037182899</v>
+        <v>0.05818914037182898</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05106837461982403</v>
+        <v>0.0504942791094067</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06591753125545807</v>
+        <v>0.06579114259180045</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>326</v>
@@ -4324,19 +4324,19 @@
         <v>206566</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>183172</v>
+        <v>185243</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>233908</v>
+        <v>231949</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04692595257556349</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04161156989848389</v>
+        <v>0.04208200668721854</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05313714781541091</v>
+        <v>0.05269214759051321</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2150351</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2130769</v>
+        <v>2131479</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2165507</v>
+        <v>2165019</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9640384364989618</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.955259326789981</v>
+        <v>0.9555775141390266</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9708330574661365</v>
+        <v>0.9706142771173194</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2698</v>
@@ -4374,19 +4374,19 @@
         <v>2045041</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2028259</v>
+        <v>2028534</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2060503</v>
+        <v>2061749</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.941810859628171</v>
+        <v>0.9418108596281709</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.934082468744542</v>
+        <v>0.9342088574081995</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9489316253801759</v>
+        <v>0.9495057208905933</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4587</v>
@@ -4395,19 +4395,19 @@
         <v>4195393</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4168051</v>
+        <v>4170010</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4218787</v>
+        <v>4216716</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9530740474244365</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9468628521845891</v>
+        <v>0.9473078524094871</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9583884301015166</v>
+        <v>0.9579179933127815</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>17426</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11287</v>
+        <v>11932</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25543</v>
+        <v>27557</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02448918752041033</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01586216774018268</v>
+        <v>0.01676815217489694</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03589639347066671</v>
+        <v>0.038726589310671</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -4520,19 +4520,19 @@
         <v>28164</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19931</v>
+        <v>20943</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37925</v>
+        <v>38726</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03832520160047621</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02712119131838302</v>
+        <v>0.02849805927258839</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0516070259083374</v>
+        <v>0.05269704137886816</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -4541,19 +4541,19 @@
         <v>45590</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35710</v>
+        <v>35598</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59581</v>
+        <v>58364</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03151858487319018</v>
+        <v>0.03151858487319017</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02468774859979427</v>
+        <v>0.02461019968564903</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04119051422281929</v>
+        <v>0.0403496143569308</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>694161</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>686044</v>
+        <v>684030</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>700300</v>
+        <v>699655</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9755108124795898</v>
+        <v>0.9755108124795896</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9641036065293334</v>
+        <v>0.961273410689329</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9841378322598172</v>
+        <v>0.983231847825103</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>961</v>
@@ -4591,19 +4591,19 @@
         <v>706713</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>696952</v>
+        <v>696151</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>714946</v>
+        <v>713934</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9616747983995236</v>
+        <v>0.9616747983995239</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9483929740916625</v>
+        <v>0.9473029586211318</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9728788086816167</v>
+        <v>0.9715019407274116</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1619</v>
@@ -4612,19 +4612,19 @@
         <v>1400874</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1386883</v>
+        <v>1388100</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1410754</v>
+        <v>1410866</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9684814151268101</v>
+        <v>0.9684814151268099</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9588094857771807</v>
+        <v>0.959650385643069</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9753122514002057</v>
+        <v>0.9753898003143507</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>167415</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>145770</v>
+        <v>146269</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>191338</v>
+        <v>191419</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04755181477750915</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04140392954804217</v>
+        <v>0.04154572695108271</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0543467306900673</v>
+        <v>0.05436990904488893</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>637</v>
@@ -4737,19 +4737,19 @@
         <v>355945</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>328839</v>
+        <v>327986</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>383061</v>
+        <v>382719</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09547090993314818</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08820058472612319</v>
+        <v>0.0879717924636601</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1027439565254965</v>
+        <v>0.1026521484437403</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>870</v>
@@ -4758,19 +4758,19 @@
         <v>523360</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>489283</v>
+        <v>488315</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>562973</v>
+        <v>563472</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07219760810277473</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0674966612882181</v>
+        <v>0.06736321673121562</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07766223609394762</v>
+        <v>0.07773110578051118</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3353268</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3329345</v>
+        <v>3329264</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3374913</v>
+        <v>3374414</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9524481852224909</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9456532693099328</v>
+        <v>0.9456300909551112</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9585960704519579</v>
+        <v>0.9584542730489173</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4715</v>
@@ -4808,19 +4808,19 @@
         <v>3372362</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3345246</v>
+        <v>3345588</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3399468</v>
+        <v>3400321</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.904529090066852</v>
+        <v>0.9045290900668518</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8972560434745035</v>
+        <v>0.8973478515562597</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.911799415273877</v>
+        <v>0.9120282075363398</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7846</v>
@@ -4829,19 +4829,19 @@
         <v>6725630</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6686017</v>
+        <v>6685518</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6759707</v>
+        <v>6760675</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9278023918972252</v>
+        <v>0.9278023918972254</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9223377639060523</v>
+        <v>0.9222688942194888</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.932503338711782</v>
+        <v>0.9326367832687843</v>
       </c>
     </row>
     <row r="15">
